--- a/IT002-OOP/Điểm thực hành/it002n11/it002n112.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002n11/it002n112.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002n11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5207CDCC-12CB-40D9-97E0-500A4DF87A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FB74C4-DB8C-4E73-BDA7-4397A39C7CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -40,184 +41,145 @@
     <t>Name</t>
   </si>
   <si>
-    <t>16521765</t>
-  </si>
-  <si>
     <t>Đạo Trọng Phiên</t>
   </si>
   <si>
-    <t>18520629</t>
-  </si>
-  <si>
     <t>Đỗ Hùng Dũng</t>
   </si>
   <si>
-    <t>18521657</t>
-  </si>
-  <si>
     <t>Phạm Xuân Vinh</t>
   </si>
   <si>
-    <t>19522165</t>
-  </si>
-  <si>
     <t>Thượng Hiếu Tâm</t>
   </si>
   <si>
-    <t>20521213</t>
-  </si>
-  <si>
     <t>Nông Tiến Dũng</t>
   </si>
   <si>
-    <t>20521307</t>
-  </si>
-  <si>
     <t>Nguyễn Đức Hiển</t>
   </si>
   <si>
-    <t>21520205</t>
-  </si>
-  <si>
     <t>Đỗ Phú Duy</t>
   </si>
   <si>
-    <t>21520308</t>
-  </si>
-  <si>
     <t>Lê Trung Kiên</t>
   </si>
   <si>
-    <t>21520332</t>
-  </si>
-  <si>
     <t>Đoàn Bảo Long</t>
   </si>
   <si>
-    <t>21520488</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Huyền Trang</t>
   </si>
   <si>
-    <t>21520591</t>
-  </si>
-  <si>
     <t>Trần Huỳnh Vân Anh</t>
   </si>
   <si>
-    <t>21520998</t>
-  </si>
-  <si>
     <t>Nguyễn Đức Minh Khoa</t>
   </si>
   <si>
-    <t>21521254</t>
-  </si>
-  <si>
     <t>Nguyễn Quốc Pháp</t>
   </si>
   <si>
-    <t>21521292</t>
-  </si>
-  <si>
     <t>Nguyễn Quý Hồng Phúc</t>
   </si>
   <si>
-    <t>21521525</t>
-  </si>
-  <si>
     <t>Lý Văn Nhật Tiến</t>
   </si>
   <si>
-    <t>21521884</t>
-  </si>
-  <si>
     <t>Tạ Quách Chánh</t>
   </si>
   <si>
-    <t>21521939</t>
-  </si>
-  <si>
     <t>Nguyễn Thành Đạt</t>
   </si>
   <si>
-    <t>21522047</t>
-  </si>
-  <si>
     <t>Nguyễn Phúc Hào</t>
   </si>
   <si>
-    <t>21522173</t>
-  </si>
-  <si>
     <t>Từ Lễ Huy</t>
   </si>
   <si>
-    <t>21522253</t>
-  </si>
-  <si>
     <t>Lê Anh Kiệt</t>
   </si>
   <si>
-    <t>21522325</t>
-  </si>
-  <si>
     <t>Trần Nguyên Mẫn</t>
   </si>
   <si>
-    <t>21522482</t>
-  </si>
-  <si>
     <t>Nguyễn Thanh Bảo Phước</t>
   </si>
   <si>
-    <t>21522488</t>
-  </si>
-  <si>
     <t>Đỗ Mai Minh Quân</t>
   </si>
   <si>
-    <t>21522562</t>
-  </si>
-  <si>
     <t>Lê Hữu Tài</t>
   </si>
   <si>
-    <t>21522593</t>
-  </si>
-  <si>
     <t>Nông Đức Thắng</t>
   </si>
   <si>
-    <t>21522658</t>
-  </si>
-  <si>
     <t>Trịnh Hoài Thương</t>
   </si>
   <si>
-    <t>21522665</t>
-  </si>
-  <si>
     <t>Nguyễn Hồng Cát Thy</t>
   </si>
   <si>
-    <t>21522721</t>
-  </si>
-  <si>
     <t>Nguyễn Mai Thanh Trúc</t>
   </si>
   <si>
-    <t>21522725</t>
-  </si>
-  <si>
     <t>Phan Lê Chí Trung</t>
   </si>
   <si>
-    <t>21522754</t>
-  </si>
-  <si>
     <t>Nguyễn Đạt Tuấn</t>
+  </si>
+  <si>
+    <t>Thi</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Thi bên .1</t>
+  </si>
+  <si>
+    <t>Sai thiết kế lớp, không có kế thừa, vẫn sai test 2</t>
+  </si>
+  <si>
+    <t>Sai test 1</t>
+  </si>
+  <si>
+    <t>Sai test 3, phương thức buff phải đặt trong lớp</t>
+  </si>
+  <si>
+    <t>Thiết kế lớp sai, sai test 1,2</t>
+  </si>
+  <si>
+    <t>Chỉ đúng thiết kế lớp</t>
+  </si>
+  <si>
+    <t>Sai test 1,2</t>
+  </si>
+  <si>
+    <t>Thiếu lớp, chưa hoàn thiện main</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thiện lớp và main</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thiện main và boss</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thiện main</t>
+  </si>
+  <si>
+    <t>Compi error</t>
+  </si>
+  <si>
+    <t>Phương thức buff phải ở trong lớp</t>
+  </si>
+  <si>
+    <t>Sai test 3</t>
   </si>
 </sst>
 </file>
@@ -276,12 +238,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -584,18 +547,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,271 +582,910 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>16521765</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="I2" s="3">
+        <f>SUM(C2:G2)/800+H2/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>18520629</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I31" si="0">SUM(C3:G3)/800+H3/2</f>
+        <v>3.75</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>18521657</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="2">
+        <v>564.29</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7053625</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>19522165</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C5" s="2">
+        <v>800</v>
+      </c>
+      <c r="D5" s="2">
+        <v>600</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>600</v>
+      </c>
+      <c r="G5" s="2">
+        <v>400</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>20521213</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>20521307</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C7" s="2">
+        <v>254.29</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31786249999999999</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>21520205</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C8" s="2">
+        <v>800</v>
+      </c>
+      <c r="D8" s="2">
+        <v>800</v>
+      </c>
+      <c r="E8" s="2">
+        <v>800</v>
+      </c>
+      <c r="F8" s="2">
+        <v>800</v>
+      </c>
+      <c r="G8" s="2">
+        <v>800</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>21520308</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C9" s="2">
+        <v>414.29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="E9" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="F9" s="2">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2">
+        <v>266.67</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7262</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>21520332</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C10" s="2">
+        <v>800</v>
+      </c>
+      <c r="D10" s="2">
+        <v>800</v>
+      </c>
+      <c r="E10" s="2">
+        <v>800</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>800</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>21520488</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C11" s="2">
+        <v>800</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>800</v>
+      </c>
+      <c r="G11" s="2">
+        <v>400</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>21520591</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C12" s="2">
+        <v>800</v>
+      </c>
+      <c r="D12" s="2">
+        <v>557.14</v>
+      </c>
+      <c r="E12" s="2">
+        <v>750</v>
+      </c>
+      <c r="F12" s="2">
+        <v>600</v>
+      </c>
+      <c r="G12" s="2">
+        <v>800</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>7.8839249999999996</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>21520998</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C13" s="2">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>21521254</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C14" s="2">
+        <v>671.43</v>
+      </c>
+      <c r="D14" s="2">
+        <v>742.86</v>
+      </c>
+      <c r="E14" s="2">
+        <v>800</v>
+      </c>
+      <c r="F14" s="2">
+        <v>800</v>
+      </c>
+      <c r="G14" s="2">
+        <v>800</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>9.7678624999999997</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>21521292</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C15" s="2">
+        <v>800</v>
+      </c>
+      <c r="D15" s="2">
+        <v>800</v>
+      </c>
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2">
+        <v>466.67</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2083375000000007</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>21521525</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C16" s="2">
+        <v>800</v>
+      </c>
+      <c r="D16" s="2">
+        <v>800</v>
+      </c>
+      <c r="E16" s="2">
+        <v>800</v>
+      </c>
+      <c r="F16" s="2">
+        <v>800</v>
+      </c>
+      <c r="G16" s="2">
+        <v>800</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>21521884</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C17" s="2">
+        <v>800</v>
+      </c>
+      <c r="D17" s="2">
+        <v>500</v>
+      </c>
+      <c r="E17" s="2">
+        <v>700</v>
+      </c>
+      <c r="F17" s="2">
+        <v>600</v>
+      </c>
+      <c r="G17" s="2">
+        <v>800</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>21521939</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C18" s="2">
+        <v>800</v>
+      </c>
+      <c r="D18" s="2">
+        <v>400</v>
+      </c>
+      <c r="E18" s="2">
+        <v>600</v>
+      </c>
+      <c r="F18" s="2">
+        <v>600</v>
+      </c>
+      <c r="G18" s="2">
+        <v>800</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>21522047</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C19" s="2">
+        <v>800</v>
+      </c>
+      <c r="D19" s="2">
+        <v>500</v>
+      </c>
+      <c r="E19" s="2">
+        <v>750</v>
+      </c>
+      <c r="F19" s="2">
+        <v>600</v>
+      </c>
+      <c r="G19" s="2">
+        <v>400</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3125</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>21522173</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C20" s="2">
+        <v>800</v>
+      </c>
+      <c r="D20" s="2">
+        <v>800</v>
+      </c>
+      <c r="E20" s="2">
+        <v>700</v>
+      </c>
+      <c r="F20" s="2">
+        <v>800</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>6.875</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>21522253</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C21" s="2">
+        <v>510</v>
+      </c>
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21522325</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C22" s="2">
+        <v>800</v>
+      </c>
+      <c r="D22" s="2">
+        <v>800</v>
+      </c>
+      <c r="E22" s="2">
+        <v>800</v>
+      </c>
+      <c r="F22" s="2">
+        <v>800</v>
+      </c>
+      <c r="G22" s="2">
+        <v>800</v>
+      </c>
+      <c r="H22" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>21522482</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C23" s="2">
+        <v>800</v>
+      </c>
+      <c r="D23" s="2">
+        <v>200</v>
+      </c>
+      <c r="E23" s="2">
+        <v>350</v>
+      </c>
+      <c r="F23" s="2">
+        <v>600</v>
+      </c>
+      <c r="G23" s="2">
+        <v>800</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4375</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>21522488</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C24" s="2">
+        <v>800</v>
+      </c>
+      <c r="D24" s="2">
+        <v>800</v>
+      </c>
+      <c r="E24" s="2">
+        <v>800</v>
+      </c>
+      <c r="F24" s="2">
+        <v>800</v>
+      </c>
+      <c r="G24" s="2">
+        <v>800</v>
+      </c>
+      <c r="H24" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>21522562</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C25" s="2">
+        <v>800</v>
+      </c>
+      <c r="D25" s="2">
+        <v>800</v>
+      </c>
+      <c r="E25" s="2">
+        <v>800</v>
+      </c>
+      <c r="F25" s="2">
+        <v>600</v>
+      </c>
+      <c r="G25" s="2">
+        <v>400</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>21522593</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C26" s="2">
+        <v>480</v>
+      </c>
+      <c r="D26" s="2">
+        <v>150</v>
+      </c>
+      <c r="E26" s="2">
+        <v>300</v>
+      </c>
+      <c r="F26" s="2">
+        <v>600</v>
+      </c>
+      <c r="G26" s="2">
+        <v>400</v>
+      </c>
+      <c r="H26" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1624999999999996</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>21522658</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C27" s="2">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>21522665</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C28" s="2">
+        <v>800</v>
+      </c>
+      <c r="D28" s="2">
+        <v>500</v>
+      </c>
+      <c r="E28" s="2">
+        <v>200</v>
+      </c>
+      <c r="F28" s="2">
+        <v>800</v>
+      </c>
+      <c r="G28" s="2">
+        <v>800</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>5.875</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>21522721</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C29" s="2">
+        <v>800</v>
+      </c>
+      <c r="D29" s="2">
+        <v>800</v>
+      </c>
+      <c r="E29" s="2">
+        <v>700</v>
+      </c>
+      <c r="F29" s="2">
+        <v>800</v>
+      </c>
+      <c r="G29" s="2">
+        <v>800</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>4.875</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>21522725</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C30" s="2">
+        <v>800</v>
+      </c>
+      <c r="D30" s="2">
+        <v>600</v>
+      </c>
+      <c r="E30" s="2">
+        <v>800</v>
+      </c>
+      <c r="F30" s="2">
+        <v>600</v>
+      </c>
+      <c r="G30" s="2">
+        <v>800</v>
+      </c>
+      <c r="H30" s="2">
+        <v>9</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>21522754</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C31" s="2">
+        <v>800</v>
+      </c>
+      <c r="D31" s="2">
+        <v>800</v>
+      </c>
+      <c r="E31" s="2">
+        <v>800</v>
+      </c>
+      <c r="F31" s="2">
+        <v>800</v>
+      </c>
+      <c r="G31" s="2">
+        <v>800</v>
+      </c>
+      <c r="H31" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
